--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_21-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_21-41.xlsx
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>انجرام40</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>31:0</t>
   </si>
   <si>
     <t>بودره نونو50ملل</t>
@@ -4325,13 +4331,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
@@ -4343,7 +4349,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4351,17 +4357,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>98.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4383,11 +4389,11 @@
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>20</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4403,13 +4409,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
@@ -4421,7 +4427,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4429,17 +4435,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4461,11 +4467,11 @@
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4487,11 +4493,11 @@
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4507,17 +4513,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4525,7 +4531,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4533,13 +4539,13 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
@@ -4551,7 +4557,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4559,13 +4565,13 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
@@ -4577,7 +4583,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4585,13 +4591,13 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="10">
@@ -4603,7 +4609,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4611,17 +4617,17 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1">
@@ -4629,7 +4635,7 @@
         <v>135</v>
       </c>
       <c t="s" r="B138" s="7">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4637,17 +4643,17 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" ht="24.75" customHeight="1">
@@ -4663,17 +4669,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M139" s="9"/>
       <c r="N139" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4681,7 +4687,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4689,17 +4695,17 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M140" s="9"/>
       <c r="N140" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" ht="24.75" customHeight="1">
@@ -4707,7 +4713,7 @@
         <v>138</v>
       </c>
       <c t="s" r="B141" s="7">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4715,13 +4721,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10">
@@ -4741,13 +4747,13 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M142" s="9"/>
       <c r="N142" s="10">
@@ -4759,7 +4765,7 @@
         <v>140</v>
       </c>
       <c t="s" r="B143" s="7">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -4767,51 +4773,77 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M143" s="9"/>
       <c r="N143" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="144" ht="25.5" customHeight="1">
-      <c r="K144" s="11">
-        <v>8990.9400000000005</v>
-      </c>
-      <c r="L144" s="11"/>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
-    </row>
-    <row r="145" ht="16.5" customHeight="1">
-      <c t="s" r="A145" s="12">
-        <v>183</v>
-      </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c t="s" r="F145" s="13">
+    <row r="144" ht="24.75" customHeight="1">
+      <c r="A144" s="6">
+        <v>141</v>
+      </c>
+      <c t="s" r="B144" s="7">
         <v>184</v>
       </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="14"/>
-      <c t="s" r="I145" s="15">
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c t="s" r="H144" s="8">
+        <v>62</v>
+      </c>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="9">
+        <v>30</v>
+      </c>
+      <c r="M144" s="9"/>
+      <c r="N144" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" ht="26.25" customHeight="1">
+      <c r="K145" s="11">
+        <v>9025.9400000000005</v>
+      </c>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+    </row>
+    <row r="146" ht="16.5" customHeight="1">
+      <c t="s" r="A146" s="12">
         <v>185</v>
       </c>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c t="s" r="F146" s="13">
+        <v>186</v>
+      </c>
+      <c r="G146" s="13"/>
+      <c r="H146" s="14"/>
+      <c t="s" r="I146" s="15">
+        <v>187</v>
+      </c>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="431">
+  <mergeCells count="434">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5239,10 +5271,13 @@
     <mergeCell ref="B143:G143"/>
     <mergeCell ref="H143:K143"/>
     <mergeCell ref="L143:M143"/>
-    <mergeCell ref="K144:N144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="I145:N145"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="K145:N145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="I146:N146"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
